--- a/QA/Regression/Regression.xlsx
+++ b/QA/Regression/Regression.xlsx
@@ -1,26 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EBDB0C-08E7-48C5-88B4-51B5ED5CEA1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test selection" sheetId="1" r:id="rId1"/>
+    <sheet name="Risk matrix" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+  <si>
+    <t>Регрессионный сет Вашего приложения состоит из 2000 тестов. Времени у Вас только на 200. Распишите Ваш ход действия.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>IMPACT ANALYSIS</t>
+  </si>
+  <si>
+    <t>RISKS ANALYSIS</t>
+  </si>
+  <si>
+    <t>CRITICAL USERS SCENARIOUS</t>
+  </si>
+  <si>
+    <t>Determine the area in which changes were made</t>
+  </si>
+  <si>
+    <t>Ask the developer what functionality could suffer after the introduction of the new functionality</t>
+  </si>
+  <si>
+    <t>Determine the area in which most often there are errors</t>
+  </si>
+  <si>
+    <t>Determine the complexity of changes for system components</t>
+  </si>
+  <si>
+    <t>Features that were implemented in hurry, by new developer, by junior developer</t>
+  </si>
+  <si>
+    <t>Features that not covered by unit tests</t>
+  </si>
+  <si>
+    <t>Features with complex business logic or tech stack</t>
+  </si>
+  <si>
+    <t>Features where we usually find a lot of defects</t>
+  </si>
+  <si>
+    <t>Statistics from Google Analitics</t>
+  </si>
+  <si>
+    <t>Focus on positive scenarios</t>
+  </si>
+  <si>
+    <t>Feedback from BA, PO</t>
+  </si>
+  <si>
+    <t>Creating end2end scripts to cover the main ways of using the application</t>
+  </si>
+  <si>
+    <t>Нарисуйте матрицу рисков при тестировании новой сборки с новым функционалом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk </t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Likelyhood</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Mitigation</t>
+  </si>
+  <si>
+    <t>Contingency</t>
+  </si>
+  <si>
+    <t>The developers gave the build at the wrong time</t>
+  </si>
+  <si>
+    <t>Do code freeze and agree with the team on the deadline for putting the build</t>
+  </si>
+  <si>
+    <t>Shift release date</t>
+  </si>
+  <si>
+    <t>Smoke test is failed</t>
+  </si>
+  <si>
+    <t>Implement unit tests</t>
+  </si>
+  <si>
+    <t>Reporting critical errors directly to the developer, rebuilding the build</t>
+  </si>
+  <si>
+    <t>Critical defects in the new functionality</t>
+  </si>
+  <si>
+    <t>Developers test themselves before sending to testing</t>
+  </si>
+  <si>
+    <t>Critical defects are reported directly to the developer</t>
+  </si>
+  <si>
+    <t>No member of the development team is familiar with the old functionality of the application</t>
+  </si>
+  <si>
+    <t>Ask the developers who were involved in this project before you, read the comments to the code and documentation</t>
+  </si>
+  <si>
+    <t>Agree with the customer about the postponement of the release date, examine the main functionality of the application</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +151,93 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -45,15 +245,179 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +694,372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B10:B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:12" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67E8938-4C71-48A5-8823-053127850354}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="17">
+        <v>3</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="17">
+        <f>C4*D4</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="20">
+        <v>3</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="20">
+        <f t="shared" ref="E5:E7" si="0">C5*D5</f>
+        <v>1.5</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>3</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="23">
+        <v>2</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="23">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="26">
+        <v>5</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>